--- a/data/fakecsv/dept_UBER.xlsx
+++ b/data/fakecsv/dept_UBER.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="107">
   <si>
     <t>Department</t>
   </si>
@@ -25,7 +25,7 @@
     <t>User ID</t>
   </si>
   <si>
-    <t>Fullname</t>
+    <t>Name</t>
   </si>
   <si>
     <t>System1</t>
@@ -40,280 +40,274 @@
     <t>UBER</t>
   </si>
   <si>
-    <t>ECX360GA309NN8ALN</t>
-  </si>
-  <si>
-    <t>J95TZLMM6R271X5M9</t>
-  </si>
-  <si>
-    <t>D14V12J58YNYSHP0C</t>
-  </si>
-  <si>
-    <t>SFNUAGD4000VGJAHT</t>
-  </si>
-  <si>
-    <t>J767T0EW47W94S3SU</t>
-  </si>
-  <si>
-    <t>V40CKPDG4S124CW8C</t>
-  </si>
-  <si>
-    <t>G5DBTDFN1RWE21RLS</t>
-  </si>
-  <si>
-    <t>1669DE8M5BJACPPCH</t>
-  </si>
-  <si>
-    <t>M5GP575D9V436F14F</t>
-  </si>
-  <si>
-    <t>JTAE7DFE99RRRDW96</t>
-  </si>
-  <si>
-    <t>V679N04753EC3ZCLT</t>
-  </si>
-  <si>
-    <t>1DD14X0M30U0HE40S</t>
-  </si>
-  <si>
-    <t>53GWJP98XVTA5PTNB</t>
-  </si>
-  <si>
-    <t>N0S8W92B7JEW4W3L2</t>
-  </si>
-  <si>
-    <t>LM93081T9N7J4YPK0</t>
-  </si>
-  <si>
-    <t>SEJ1E8EP9XD6CK6AH</t>
-  </si>
-  <si>
-    <t>1P2L60205EV6PS7Y7</t>
-  </si>
-  <si>
-    <t>KBL3PGM17KKKPYH23</t>
-  </si>
-  <si>
-    <t>7NX383EZ4KDCH6S27</t>
-  </si>
-  <si>
-    <t>6KEFZAE22JY1V8FWK</t>
-  </si>
-  <si>
-    <t>F5USUTTB2RRR2G7HG</t>
-  </si>
-  <si>
-    <t>86JYA8DN49Y7FHZNC</t>
-  </si>
-  <si>
-    <t>EMU6GZFG28FG7BRFZ</t>
-  </si>
-  <si>
-    <t>GU7X0PNX6E703K4C4</t>
-  </si>
-  <si>
-    <t>ZFD8D77E1T79SX8M1</t>
-  </si>
-  <si>
-    <t>2JFM7744327LTNKF2</t>
-  </si>
-  <si>
-    <t>ZU019MXS5Y4KANEBT</t>
-  </si>
-  <si>
-    <t>EK2VUUS55ENGYMKPM</t>
-  </si>
-  <si>
-    <t>PAYYMSA03N7MS3UFF</t>
-  </si>
-  <si>
-    <t>WY828XHV1MX9FYHKW</t>
-  </si>
-  <si>
-    <t>ZXB94PXG57KGF6BG0</t>
-  </si>
-  <si>
-    <t>783M8KL27BPE7BVTV</t>
-  </si>
-  <si>
-    <t>VM36VB102WDY1HG3R</t>
-  </si>
-  <si>
-    <t>2ANKG6CW9TLJTKZE8</t>
-  </si>
-  <si>
-    <t>HRSJ059W176J25YUH</t>
-  </si>
-  <si>
-    <t>F65FF6FR4VW0BF2D3</t>
-  </si>
-  <si>
-    <t>R3BK5W479GVV185UA</t>
-  </si>
-  <si>
-    <t>0V9074P71TWPEMF1Y</t>
-  </si>
-  <si>
-    <t>AEVWZCRL7ZDJ8C8F9</t>
-  </si>
-  <si>
-    <t>2L58EEHT00FY1BLBB</t>
-  </si>
-  <si>
-    <t>JG3MW8X44JMCM3KLM</t>
-  </si>
-  <si>
-    <t>X92PBVTU7YFL1MX0L</t>
-  </si>
-  <si>
-    <t>FKSA7PYH0LGYB08PF</t>
-  </si>
-  <si>
-    <t>H0LAUM0B2RD97J0DL</t>
-  </si>
-  <si>
-    <t>DA6ND2S83C7H5EUUK</t>
-  </si>
-  <si>
-    <t>BM81JH425NF64SXJS</t>
-  </si>
-  <si>
-    <t>Mary Tucker</t>
-  </si>
-  <si>
-    <t>Thomas Gutierrez</t>
-  </si>
-  <si>
-    <t>Jamie Robinson</t>
-  </si>
-  <si>
-    <t>Sarah Krause</t>
-  </si>
-  <si>
-    <t>Melanie Holloway</t>
-  </si>
-  <si>
-    <t>Karen Reyes</t>
-  </si>
-  <si>
-    <t>Shelia Gray</t>
-  </si>
-  <si>
-    <t>Michael Thomas</t>
-  </si>
-  <si>
-    <t>Rebecca Dickerson</t>
-  </si>
-  <si>
-    <t>Trevor Jenkins</t>
-  </si>
-  <si>
-    <t>Andrew Carter</t>
-  </si>
-  <si>
-    <t>Alan Kennedy</t>
-  </si>
-  <si>
-    <t>Leah Crane MD</t>
-  </si>
-  <si>
-    <t>Jason Briggs</t>
-  </si>
-  <si>
-    <t>David Johnson</t>
-  </si>
-  <si>
-    <t>Justin Powell</t>
-  </si>
-  <si>
-    <t>Dr. Kyle Walker</t>
-  </si>
-  <si>
-    <t>Zachary Boyd</t>
-  </si>
-  <si>
-    <t>Corey Austin</t>
-  </si>
-  <si>
-    <t>Loretta Cook</t>
-  </si>
-  <si>
-    <t>Kayla Gonzalez</t>
-  </si>
-  <si>
-    <t>Christine Schmidt</t>
-  </si>
-  <si>
-    <t>Christie Alvarez</t>
-  </si>
-  <si>
-    <t>Kelsey Olson</t>
-  </si>
-  <si>
-    <t>Dr. Maria Fuller</t>
-  </si>
-  <si>
-    <t>Samuel Rose</t>
-  </si>
-  <si>
-    <t>Peter Horton</t>
-  </si>
-  <si>
-    <t>Brittany Mcdonald</t>
-  </si>
-  <si>
-    <t>Dawn Thomas</t>
-  </si>
-  <si>
-    <t>Jennifer Hudson</t>
-  </si>
-  <si>
-    <t>Valerie James</t>
-  </si>
-  <si>
-    <t>Richard Alvarado</t>
-  </si>
-  <si>
-    <t>Olivia Hughes</t>
-  </si>
-  <si>
-    <t>Timothy Lee</t>
-  </si>
-  <si>
-    <t>Michael Noble</t>
-  </si>
-  <si>
-    <t>Jessica Perry</t>
-  </si>
-  <si>
-    <t>Justin James</t>
-  </si>
-  <si>
-    <t>John Ewing</t>
-  </si>
-  <si>
-    <t>Bobby Dean</t>
-  </si>
-  <si>
-    <t>Sean Jarvis</t>
-  </si>
-  <si>
-    <t>Eric Jones</t>
-  </si>
-  <si>
-    <t>Joanna Buckley</t>
-  </si>
-  <si>
-    <t>Dr. Andrea Hull DDS</t>
-  </si>
-  <si>
-    <t>Christina Vincent</t>
-  </si>
-  <si>
-    <t>Melissa Jones</t>
-  </si>
-  <si>
-    <t>Diane Foster</t>
+    <t>XB7WXA8L5A8N8R234</t>
+  </si>
+  <si>
+    <t>WTUY72SJ6VN076GYW</t>
+  </si>
+  <si>
+    <t>F04D407744AZNHKGJ</t>
+  </si>
+  <si>
+    <t>0FR9P86Y3UG4JUJDZ</t>
+  </si>
+  <si>
+    <t>YWEMMNHD5YDLSS0WB</t>
+  </si>
+  <si>
+    <t>W04AG8SF7FPCUKASA</t>
+  </si>
+  <si>
+    <t>UA5UHK752T9PRBMTX</t>
+  </si>
+  <si>
+    <t>TSRVP1357PHHL357D</t>
+  </si>
+  <si>
+    <t>7JMLCVFP13CR2TZN8</t>
+  </si>
+  <si>
+    <t>4TZ9YN7P2HA5GGRYC</t>
+  </si>
+  <si>
+    <t>51KE7GK59E37VMRJ0</t>
+  </si>
+  <si>
+    <t>TG046X1J54DCUM4VE</t>
+  </si>
+  <si>
+    <t>RVTHAWD16MMRTBCCL</t>
+  </si>
+  <si>
+    <t>H5XZU64N4DEVJG60F</t>
+  </si>
+  <si>
+    <t>P2EL18JR32A7AKFHG</t>
+  </si>
+  <si>
+    <t>S9NV2Y986FHH4ANYW</t>
+  </si>
+  <si>
+    <t>8E6DEXAG91W6RNM8Z</t>
+  </si>
+  <si>
+    <t>U709C7MT4A7W37KB9</t>
+  </si>
+  <si>
+    <t>BF6ST79621NEGDW1V</t>
+  </si>
+  <si>
+    <t>0Y7YWUA2XJY8BNNPG</t>
+  </si>
+  <si>
+    <t>Z6P3F31X10XYDU4XY</t>
+  </si>
+  <si>
+    <t>C4VSW64J5PSN2JHYR</t>
+  </si>
+  <si>
+    <t>7DRZETPZ0KRKTG6JC</t>
+  </si>
+  <si>
+    <t>BPMJYD9X4A56NNBUD</t>
+  </si>
+  <si>
+    <t>S809STL57G5AD7WZ2</t>
+  </si>
+  <si>
+    <t>X1CPGHC73L4HMRYVF</t>
+  </si>
+  <si>
+    <t>XG67WDVKX2KFHJWNR</t>
+  </si>
+  <si>
+    <t>KR6JUZUT84X3GN5BU</t>
+  </si>
+  <si>
+    <t>ZP3KF6WD3EEA8MMJE</t>
+  </si>
+  <si>
+    <t>3NVJNR3E97RXFFZS2</t>
+  </si>
+  <si>
+    <t>JJ5Y1CTA0YUFCA0TY</t>
+  </si>
+  <si>
+    <t>C4L2CKER03LY0E8LX</t>
+  </si>
+  <si>
+    <t>JJXRGFWVX5U4Z2HW5</t>
+  </si>
+  <si>
+    <t>BSVEXBB292VJV5HD5</t>
+  </si>
+  <si>
+    <t>V2SKXPLX0NASDSJ3S</t>
+  </si>
+  <si>
+    <t>49FD1MBC3N64GX7XC</t>
+  </si>
+  <si>
+    <t>A7LLPRTX02MPDR88C</t>
+  </si>
+  <si>
+    <t>EKVLXF1G518VN7U1G</t>
+  </si>
+  <si>
+    <t>PKS6ZYB48LD96XYBF</t>
+  </si>
+  <si>
+    <t>HYKKEF3W94467B76T</t>
+  </si>
+  <si>
+    <t>EKE4CJCKXXJXK8AFW</t>
+  </si>
+  <si>
+    <t>0NJBFKAF80CGCFLAK</t>
+  </si>
+  <si>
+    <t>JU1UWK9HXA0DKZYW3</t>
+  </si>
+  <si>
+    <t>33GNDK238N3KYBNWA</t>
+  </si>
+  <si>
+    <t>5ZWAK41K66VHW5NSW</t>
+  </si>
+  <si>
+    <t>Stacey Jones</t>
+  </si>
+  <si>
+    <t>Anthony Thomas DDS</t>
+  </si>
+  <si>
+    <t>Katrina Harris</t>
+  </si>
+  <si>
+    <t>Gregory Wong</t>
+  </si>
+  <si>
+    <t>Thomas Pitts</t>
+  </si>
+  <si>
+    <t>Alexander Baker</t>
+  </si>
+  <si>
+    <t>Abigail Beard</t>
+  </si>
+  <si>
+    <t>Amy Wright</t>
+  </si>
+  <si>
+    <t>Shelly Harris</t>
+  </si>
+  <si>
+    <t>Heather Adams</t>
+  </si>
+  <si>
+    <t>Jeffery Short</t>
+  </si>
+  <si>
+    <t>Joseph Turner</t>
+  </si>
+  <si>
+    <t>Mrs. Andrea Morton</t>
+  </si>
+  <si>
+    <t>Susan Pearson</t>
+  </si>
+  <si>
+    <t>Kyle Garcia</t>
+  </si>
+  <si>
+    <t>Jared Jacobs</t>
+  </si>
+  <si>
+    <t>Christopher Andrews</t>
+  </si>
+  <si>
+    <t>Antonio Weaver</t>
+  </si>
+  <si>
+    <t>Timothy Haynes</t>
+  </si>
+  <si>
+    <t>Terry Lawson</t>
+  </si>
+  <si>
+    <t>Connor Hall</t>
+  </si>
+  <si>
+    <t>Robert Smith</t>
+  </si>
+  <si>
+    <t>Jose Reyes</t>
+  </si>
+  <si>
+    <t>Michael Mora</t>
+  </si>
+  <si>
+    <t>Harry Ramirez</t>
+  </si>
+  <si>
+    <t>Joshua James</t>
+  </si>
+  <si>
+    <t>Raven Patel</t>
+  </si>
+  <si>
+    <t>Justin White</t>
+  </si>
+  <si>
+    <t>Leslie Rosales</t>
+  </si>
+  <si>
+    <t>Sarah Frazier</t>
+  </si>
+  <si>
+    <t>Ashley Beck</t>
+  </si>
+  <si>
+    <t>David Jones</t>
+  </si>
+  <si>
+    <t>Brooke Bradley</t>
+  </si>
+  <si>
+    <t>Justin Burke</t>
+  </si>
+  <si>
+    <t>David Carter</t>
+  </si>
+  <si>
+    <t>James Bonilla</t>
+  </si>
+  <si>
+    <t>Teresa Hubbard</t>
+  </si>
+  <si>
+    <t>Joel Miles</t>
+  </si>
+  <si>
+    <t>Jamie Liu</t>
+  </si>
+  <si>
+    <t>Joanne Dickerson</t>
+  </si>
+  <si>
+    <t>Nicholas Lopez</t>
+  </si>
+  <si>
+    <t>Dennis Flowers</t>
+  </si>
+  <si>
+    <t>Dennis Webb</t>
+  </si>
+  <si>
+    <t>Matthew Allen</t>
+  </si>
+  <si>
+    <t>Jerry Reyes</t>
   </si>
   <si>
     <t>KLSE</t>
@@ -698,7 +692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F217"/>
+  <dimension ref="A1:F198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -735,10 +729,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -752,10 +746,10 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -769,10 +763,10 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -786,10 +780,10 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -800,13 +794,13 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -817,13 +811,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
         <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -834,13 +828,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -854,10 +848,10 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -868,13 +862,13 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -885,13 +879,13 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -902,13 +896,13 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
         <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -919,13 +913,13 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
         <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -936,13 +930,13 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
         <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -953,13 +947,13 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -970,13 +964,13 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -987,13 +981,13 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1004,13 +998,13 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1021,13 +1015,13 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
         <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1038,13 +1032,13 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
         <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1055,13 +1049,13 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
         <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1072,13 +1066,13 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1089,13 +1083,13 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1106,13 +1100,13 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1123,13 +1117,13 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
         <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1140,13 +1134,13 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
         <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1157,13 +1151,13 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
         <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1174,13 +1168,13 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
         <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1191,13 +1185,13 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
         <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1208,13 +1202,13 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
         <v>59</v>
       </c>
       <c r="E30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1225,13 +1219,13 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
         <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1242,13 +1236,13 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
         <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1262,10 +1256,10 @@
         <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E33" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1279,10 +1273,10 @@
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E34" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1293,13 +1287,13 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
         <v>60</v>
       </c>
       <c r="E35" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1310,13 +1304,13 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
         <v>60</v>
       </c>
       <c r="E36" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1327,13 +1321,13 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D37" t="s">
         <v>60</v>
       </c>
       <c r="E37" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1344,13 +1338,13 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
         <v>60</v>
       </c>
       <c r="E38" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1361,13 +1355,13 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D39" t="s">
         <v>60</v>
       </c>
       <c r="E39" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1378,13 +1372,13 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
         <v>60</v>
       </c>
       <c r="E40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1395,13 +1389,13 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E41" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1412,13 +1406,13 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
         <v>61</v>
       </c>
       <c r="E42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1429,13 +1423,13 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
         <v>61</v>
       </c>
       <c r="E43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1449,10 +1443,10 @@
         <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E44" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1466,10 +1460,10 @@
         <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E45" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1480,13 +1474,13 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E46" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1497,13 +1491,13 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E47" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1514,13 +1508,13 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E48" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1531,13 +1525,13 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E49" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1551,10 +1545,10 @@
         <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E50" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1568,10 +1562,10 @@
         <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E51" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1585,10 +1579,10 @@
         <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E52" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1602,10 +1596,10 @@
         <v>17</v>
       </c>
       <c r="D53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E53" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1616,13 +1610,13 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D54" t="s">
         <v>63</v>
       </c>
       <c r="E54" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1636,10 +1630,10 @@
         <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1653,10 +1647,10 @@
         <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1670,10 +1664,10 @@
         <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1687,10 +1681,10 @@
         <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1704,10 +1698,10 @@
         <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E59" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1721,10 +1715,10 @@
         <v>19</v>
       </c>
       <c r="D60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E60" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1738,10 +1732,10 @@
         <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E61" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1755,10 +1749,10 @@
         <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E62" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1772,10 +1766,10 @@
         <v>20</v>
       </c>
       <c r="D63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E63" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1789,10 +1783,10 @@
         <v>21</v>
       </c>
       <c r="D64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E64" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1806,10 +1800,10 @@
         <v>21</v>
       </c>
       <c r="D65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E65" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1823,10 +1817,10 @@
         <v>21</v>
       </c>
       <c r="D66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E66" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1837,13 +1831,13 @@
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D67" t="s">
         <v>67</v>
       </c>
       <c r="E67" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1854,13 +1848,13 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D68" t="s">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1874,7 +1868,7 @@
         <v>22</v>
       </c>
       <c r="D69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E69" t="s">
         <v>100</v>
@@ -1891,7 +1885,7 @@
         <v>22</v>
       </c>
       <c r="D70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E70" t="s">
         <v>101</v>
@@ -1908,7 +1902,7 @@
         <v>22</v>
       </c>
       <c r="D71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E71" t="s">
         <v>102</v>
@@ -1925,7 +1919,7 @@
         <v>22</v>
       </c>
       <c r="D72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E72" t="s">
         <v>103</v>
@@ -1942,7 +1936,7 @@
         <v>22</v>
       </c>
       <c r="D73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E73" t="s">
         <v>104</v>
@@ -1959,10 +1953,10 @@
         <v>23</v>
       </c>
       <c r="D74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E74" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1976,10 +1970,10 @@
         <v>23</v>
       </c>
       <c r="D75" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E75" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1993,10 +1987,10 @@
         <v>23</v>
       </c>
       <c r="D76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E76" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2007,13 +2001,13 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D77" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E77" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2024,13 +2018,13 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D78" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E78" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2041,13 +2035,13 @@
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D79" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E79" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2058,13 +2052,13 @@
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D80" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E80" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2075,13 +2069,13 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D81" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E81" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2092,13 +2086,13 @@
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D82" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E82" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2109,13 +2103,13 @@
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D83" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E83" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2126,13 +2120,13 @@
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D84" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E84" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2143,13 +2137,13 @@
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D85" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E85" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2160,13 +2154,13 @@
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D86" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E86" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2177,13 +2171,13 @@
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D87" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E87" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2194,13 +2188,13 @@
         <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D88" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E88" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2211,13 +2205,13 @@
         <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D89" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E89" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2228,13 +2222,13 @@
         <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D90" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E90" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2245,13 +2239,13 @@
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D91" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E91" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2262,13 +2256,13 @@
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D92" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E92" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2279,13 +2273,13 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D93" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E93" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2296,13 +2290,13 @@
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D94" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E94" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2313,13 +2307,13 @@
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D95" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E95" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2330,13 +2324,13 @@
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D96" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E96" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2347,13 +2341,13 @@
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D97" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E97" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2364,13 +2358,13 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D98" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E98" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2381,13 +2375,13 @@
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D99" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E99" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2398,13 +2392,13 @@
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D100" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E100" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2415,13 +2409,13 @@
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D101" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E101" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2432,13 +2426,13 @@
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D102" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E102" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2449,13 +2443,13 @@
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D103" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E103" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2466,13 +2460,13 @@
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D104" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E104" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2483,13 +2477,13 @@
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D105" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E105" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2500,13 +2494,13 @@
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D106" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E106" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2517,13 +2511,13 @@
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D107" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E107" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2534,13 +2528,13 @@
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D108" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E108" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2551,13 +2545,13 @@
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D109" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E109" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2568,13 +2562,13 @@
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D110" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E110" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2585,13 +2579,13 @@
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D111" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E111" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2602,13 +2596,13 @@
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D112" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E112" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2619,13 +2613,13 @@
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D113" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E113" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2636,13 +2630,13 @@
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D114" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E114" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2653,13 +2647,13 @@
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D115" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E115" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2670,13 +2664,13 @@
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D116" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E116" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2687,13 +2681,13 @@
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D117" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E117" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2704,13 +2698,13 @@
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D118" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E118" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2721,13 +2715,13 @@
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D119" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E119" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2738,13 +2732,13 @@
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D120" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E120" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2755,13 +2749,13 @@
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D121" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E121" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2772,13 +2766,13 @@
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D122" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E122" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2789,13 +2783,13 @@
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D123" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E123" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2806,13 +2800,13 @@
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D124" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E124" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2823,13 +2817,13 @@
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D125" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E125" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2840,13 +2834,13 @@
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D126" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E126" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2857,13 +2851,13 @@
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D127" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E127" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2874,13 +2868,13 @@
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D128" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E128" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2891,13 +2885,13 @@
         <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D129" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E129" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2908,13 +2902,13 @@
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D130" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E130" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2925,13 +2919,13 @@
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D131" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E131" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2942,13 +2936,13 @@
         <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D132" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E132" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2959,13 +2953,13 @@
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D133" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E133" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2976,13 +2970,13 @@
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D134" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E134" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2993,13 +2987,13 @@
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D135" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E135" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3010,13 +3004,13 @@
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D136" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E136" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3027,13 +3021,13 @@
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D137" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E137" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3044,13 +3038,13 @@
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D138" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E138" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3061,13 +3055,13 @@
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D139" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E139" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3078,13 +3072,13 @@
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D140" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E140" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3095,13 +3089,13 @@
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D141" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E141" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3112,13 +3106,13 @@
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D142" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E142" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3129,13 +3123,13 @@
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D143" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E143" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3146,13 +3140,13 @@
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D144" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E144" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3166,10 +3160,10 @@
         <v>39</v>
       </c>
       <c r="D145" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E145" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3183,10 +3177,10 @@
         <v>39</v>
       </c>
       <c r="D146" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E146" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3197,10 +3191,10 @@
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D147" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E147" t="s">
         <v>100</v>
@@ -3214,10 +3208,10 @@
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D148" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E148" t="s">
         <v>101</v>
@@ -3231,10 +3225,10 @@
         <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D149" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E149" t="s">
         <v>102</v>
@@ -3251,10 +3245,10 @@
         <v>40</v>
       </c>
       <c r="D150" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E150" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3265,13 +3259,13 @@
         <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D151" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E151" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3282,13 +3276,13 @@
         <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D152" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E152" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3299,13 +3293,13 @@
         <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D153" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E153" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3316,13 +3310,13 @@
         <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D154" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E154" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3333,13 +3327,13 @@
         <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D155" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E155" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3353,10 +3347,10 @@
         <v>41</v>
       </c>
       <c r="D156" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E156" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3370,10 +3364,10 @@
         <v>41</v>
       </c>
       <c r="D157" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E157" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3387,10 +3381,10 @@
         <v>41</v>
       </c>
       <c r="D158" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E158" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3401,13 +3395,13 @@
         <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D159" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E159" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3421,10 +3415,10 @@
         <v>42</v>
       </c>
       <c r="D160" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E160" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3438,10 +3432,10 @@
         <v>43</v>
       </c>
       <c r="D161" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E161" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3455,10 +3449,10 @@
         <v>43</v>
       </c>
       <c r="D162" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E162" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3472,10 +3466,10 @@
         <v>43</v>
       </c>
       <c r="D163" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E163" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3489,10 +3483,10 @@
         <v>43</v>
       </c>
       <c r="D164" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E164" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3506,10 +3500,10 @@
         <v>43</v>
       </c>
       <c r="D165" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E165" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3523,10 +3517,10 @@
         <v>43</v>
       </c>
       <c r="D166" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E166" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3540,10 +3534,10 @@
         <v>44</v>
       </c>
       <c r="D167" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E167" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3557,10 +3551,10 @@
         <v>44</v>
       </c>
       <c r="D168" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E168" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3571,13 +3565,13 @@
         <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D169" t="s">
         <v>90</v>
       </c>
       <c r="E169" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3588,13 +3582,13 @@
         <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D170" t="s">
         <v>90</v>
       </c>
       <c r="E170" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3605,13 +3599,13 @@
         <v>7</v>
       </c>
       <c r="C171" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D171" t="s">
         <v>90</v>
       </c>
       <c r="E171" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3622,13 +3616,13 @@
         <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D172" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E172" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3639,13 +3633,13 @@
         <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D173" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E173" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3656,13 +3650,13 @@
         <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D174" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E174" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3673,13 +3667,13 @@
         <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D175" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E175" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3690,13 +3684,13 @@
         <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D176" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E176" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3707,13 +3701,13 @@
         <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D177" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E177" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3724,13 +3718,13 @@
         <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D178" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E178" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3741,13 +3735,13 @@
         <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D179" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E179" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3758,13 +3752,13 @@
         <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D180" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E180" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3775,13 +3769,13 @@
         <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D181" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E181" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3792,13 +3786,13 @@
         <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D182" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E182" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3809,13 +3803,13 @@
         <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D183" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E183" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3826,13 +3820,13 @@
         <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D184" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E184" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3843,13 +3837,13 @@
         <v>7</v>
       </c>
       <c r="C185" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D185" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E185" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3860,13 +3854,13 @@
         <v>7</v>
       </c>
       <c r="C186" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D186" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E186" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3877,13 +3871,13 @@
         <v>7</v>
       </c>
       <c r="C187" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D187" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E187" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3894,13 +3888,13 @@
         <v>7</v>
       </c>
       <c r="C188" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D188" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E188" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3911,13 +3905,13 @@
         <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D189" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E189" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3928,10 +3922,10 @@
         <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D190" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E190" t="s">
         <v>100</v>
@@ -3945,10 +3939,10 @@
         <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D191" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E191" t="s">
         <v>101</v>
@@ -3962,10 +3956,10 @@
         <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D192" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E192" t="s">
         <v>102</v>
@@ -3979,10 +3973,10 @@
         <v>7</v>
       </c>
       <c r="C193" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D193" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E193" t="s">
         <v>103</v>
@@ -3996,10 +3990,10 @@
         <v>7</v>
       </c>
       <c r="C194" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D194" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E194" t="s">
         <v>104</v>
@@ -4013,13 +4007,13 @@
         <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D195" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E195" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4030,13 +4024,13 @@
         <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D196" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E196" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4047,13 +4041,13 @@
         <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D197" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E197" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4064,336 +4058,13 @@
         <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D198" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E198" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="A199" t="s">
-        <v>6</v>
-      </c>
-      <c r="B199" t="s">
-        <v>7</v>
-      </c>
-      <c r="C199" t="s">
-        <v>49</v>
-      </c>
-      <c r="D199" t="s">
-        <v>95</v>
-      </c>
-      <c r="E199" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
-      <c r="A200" t="s">
-        <v>6</v>
-      </c>
-      <c r="B200" t="s">
-        <v>7</v>
-      </c>
-      <c r="C200" t="s">
-        <v>49</v>
-      </c>
-      <c r="D200" t="s">
-        <v>95</v>
-      </c>
-      <c r="E200" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
-      <c r="A201" t="s">
-        <v>6</v>
-      </c>
-      <c r="B201" t="s">
-        <v>7</v>
-      </c>
-      <c r="C201" t="s">
-        <v>50</v>
-      </c>
-      <c r="D201" t="s">
-        <v>96</v>
-      </c>
-      <c r="E201" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="A202" t="s">
-        <v>6</v>
-      </c>
-      <c r="B202" t="s">
-        <v>7</v>
-      </c>
-      <c r="C202" t="s">
-        <v>51</v>
-      </c>
-      <c r="D202" t="s">
-        <v>97</v>
-      </c>
-      <c r="E202" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="A203" t="s">
-        <v>6</v>
-      </c>
-      <c r="B203" t="s">
-        <v>7</v>
-      </c>
-      <c r="C203" t="s">
-        <v>51</v>
-      </c>
-      <c r="D203" t="s">
-        <v>97</v>
-      </c>
-      <c r="E203" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="A204" t="s">
-        <v>6</v>
-      </c>
-      <c r="B204" t="s">
-        <v>7</v>
-      </c>
-      <c r="C204" t="s">
-        <v>51</v>
-      </c>
-      <c r="D204" t="s">
-        <v>97</v>
-      </c>
-      <c r="E204" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
-      <c r="A205" t="s">
-        <v>6</v>
-      </c>
-      <c r="B205" t="s">
-        <v>7</v>
-      </c>
-      <c r="C205" t="s">
-        <v>51</v>
-      </c>
-      <c r="D205" t="s">
-        <v>97</v>
-      </c>
-      <c r="E205" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
-      <c r="A206" t="s">
-        <v>6</v>
-      </c>
-      <c r="B206" t="s">
-        <v>7</v>
-      </c>
-      <c r="C206" t="s">
-        <v>52</v>
-      </c>
-      <c r="D206" t="s">
-        <v>98</v>
-      </c>
-      <c r="E206" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
-      <c r="A207" t="s">
-        <v>6</v>
-      </c>
-      <c r="B207" t="s">
-        <v>7</v>
-      </c>
-      <c r="C207" t="s">
-        <v>52</v>
-      </c>
-      <c r="D207" t="s">
-        <v>98</v>
-      </c>
-      <c r="E207" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="A208" t="s">
-        <v>6</v>
-      </c>
-      <c r="B208" t="s">
-        <v>7</v>
-      </c>
-      <c r="C208" t="s">
-        <v>52</v>
-      </c>
-      <c r="D208" t="s">
-        <v>98</v>
-      </c>
-      <c r="E208" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="A209" t="s">
-        <v>6</v>
-      </c>
-      <c r="B209" t="s">
-        <v>7</v>
-      </c>
-      <c r="C209" t="s">
-        <v>52</v>
-      </c>
-      <c r="D209" t="s">
-        <v>98</v>
-      </c>
-      <c r="E209" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
-      <c r="A210" t="s">
-        <v>6</v>
-      </c>
-      <c r="B210" t="s">
-        <v>7</v>
-      </c>
-      <c r="C210" t="s">
-        <v>52</v>
-      </c>
-      <c r="D210" t="s">
-        <v>98</v>
-      </c>
-      <c r="E210" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="A211" t="s">
-        <v>6</v>
-      </c>
-      <c r="B211" t="s">
-        <v>7</v>
-      </c>
-      <c r="C211" t="s">
-        <v>52</v>
-      </c>
-      <c r="D211" t="s">
-        <v>98</v>
-      </c>
-      <c r="E211" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="A212" t="s">
-        <v>6</v>
-      </c>
-      <c r="B212" t="s">
-        <v>7</v>
-      </c>
-      <c r="C212" t="s">
-        <v>52</v>
-      </c>
-      <c r="D212" t="s">
-        <v>98</v>
-      </c>
-      <c r="E212" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="A213" t="s">
-        <v>6</v>
-      </c>
-      <c r="B213" t="s">
-        <v>7</v>
-      </c>
-      <c r="C213" t="s">
-        <v>52</v>
-      </c>
-      <c r="D213" t="s">
-        <v>98</v>
-      </c>
-      <c r="E213" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
-      <c r="A214" t="s">
-        <v>6</v>
-      </c>
-      <c r="B214" t="s">
-        <v>7</v>
-      </c>
-      <c r="C214" t="s">
-        <v>52</v>
-      </c>
-      <c r="D214" t="s">
-        <v>98</v>
-      </c>
-      <c r="E214" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="A215" t="s">
-        <v>6</v>
-      </c>
-      <c r="B215" t="s">
-        <v>7</v>
-      </c>
-      <c r="C215" t="s">
-        <v>53</v>
-      </c>
-      <c r="D215" t="s">
-        <v>99</v>
-      </c>
-      <c r="E215" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="A216" t="s">
-        <v>6</v>
-      </c>
-      <c r="B216" t="s">
-        <v>7</v>
-      </c>
-      <c r="C216" t="s">
-        <v>53</v>
-      </c>
-      <c r="D216" t="s">
-        <v>99</v>
-      </c>
-      <c r="E216" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
-      <c r="A217" t="s">
-        <v>6</v>
-      </c>
-      <c r="B217" t="s">
-        <v>7</v>
-      </c>
-      <c r="C217" t="s">
-        <v>53</v>
-      </c>
-      <c r="D217" t="s">
-        <v>99</v>
-      </c>
-      <c r="E217" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
